--- a/results/mp/logistic/corona/confidence/42/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,55 +40,67 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>warning</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>drop</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
@@ -100,220 +112,238 @@
     <t>low</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -671,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -782,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -890,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.821917808219178</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -908,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -940,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.9302325581395349</v>
+        <v>0.9375</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6956521739130435</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1108,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1132,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6944444444444444</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.9164490861618799</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L11">
-        <v>351</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>351</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.9152542372881356</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L12">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6153846153846154</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1258,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.9017857142857143</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5767195767195767</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8947368421052632</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1340,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5490196078431373</v>
+        <v>0.65</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.8936170212765957</v>
+        <v>0.9060052219321149</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5329457364341085</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.8773584905660378</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4333333333333333</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1482,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4193548387096774</v>
+        <v>0.5484496124031008</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.8661971830985915</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L18">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,37 +1570,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4067796610169492</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>24</v>
       </c>
-      <c r="D19">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>35</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.8625</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.36</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.8611111111111112</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3272727272727273</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.8414634146341463</v>
+        <v>0.84375</v>
       </c>
       <c r="L21">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="M21">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1682,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2885906040268457</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1708,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.8275862068965517</v>
+        <v>0.84375</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1732,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2363636363636364</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.8235294117647058</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1820,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.8205128205128205</v>
+        <v>0.8125</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,37 +1870,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00515630035449565</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3087</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.8181818181818182</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1890,37 +1920,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003305463737118413</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.4399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>5126</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.8181818181818182</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1932,125 +1962,245 @@
         <v>0</v>
       </c>
       <c r="Q26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.2055555555555555</v>
+      </c>
+      <c r="C27">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>286</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>228</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L28">
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <v>22</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01172791243158718</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0.4</v>
+      </c>
+      <c r="F29">
+        <v>0.6</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1264</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.7936507936507936</v>
-      </c>
-      <c r="L27">
-        <v>50</v>
-      </c>
-      <c r="M27">
-        <v>50</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.008421052631578947</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>0.17</v>
+      </c>
+      <c r="F30">
+        <v>0.83</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2355</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.76</v>
+      </c>
+      <c r="L30">
+        <v>38</v>
+      </c>
+      <c r="M30">
+        <v>38</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.004188144329896907</v>
+      </c>
+      <c r="C31">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L28">
-        <v>38</v>
-      </c>
-      <c r="M28">
-        <v>38</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L29">
-        <v>21</v>
-      </c>
-      <c r="M29">
-        <v>21</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="L30">
-        <v>17</v>
-      </c>
-      <c r="M30">
-        <v>17</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>0.19</v>
+      </c>
+      <c r="F31">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3091</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.7714285714285715</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2062,21 +2212,45 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.003717472118959108</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0.6</v>
+      </c>
+      <c r="F32">
+        <v>0.4</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4288</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.76</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2088,21 +2262,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2114,21 +2288,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2140,21 +2314,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.7441176470588236</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L35">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="M35">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2166,21 +2340,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.7368421052631579</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2192,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2218,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2249,16 +2423,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.7108843537414966</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L39">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="M39">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2267,24 +2441,24 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.7071129707112971</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L40">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2296,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.7037037037037037</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2322,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.6956521739130435</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2348,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.6842105263157895</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2374,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.6741573033707865</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L44">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2400,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.6702127659574468</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L45">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2426,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2452,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2483,16 +2657,16 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.6307692307692307</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L48">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2504,21 +2678,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.6153846153846154</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2530,47 +2704,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.6097560975609756</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.6086956521739131</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2582,21 +2756,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.6078431372549019</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2608,21 +2782,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.6060606060606061</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2634,21 +2808,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.5925925925925926</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2660,21 +2834,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2691,16 +2865,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.5416666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2712,21 +2886,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2738,21 +2912,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K58">
-        <v>0.4520547945205479</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2764,21 +2938,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>0.4516129032258064</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2790,21 +2964,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.4102564102564102</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L60">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2816,21 +2990,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.4067796610169492</v>
+        <v>0.421875</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2842,21 +3016,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.390625</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2868,21 +3042,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>0.2622950819672131</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2894,21 +3068,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K64">
-        <v>0.1805555555555556</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2920,163 +3094,267 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K65">
-        <v>0.02838063439065109</v>
+        <v>0.03085904920767306</v>
       </c>
       <c r="L65">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M65">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K66">
-        <v>0.007132132132132132</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O66">
-        <v>0.32</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2645</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K67">
-        <v>0.005323505323505323</v>
+        <v>0.01627670396744659</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O67">
-        <v>0.1899999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2429</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="K68">
-        <v>0.004273504273504274</v>
+        <v>0.01069182389937107</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N68">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O68">
-        <v>0.4399999999999999</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>5126</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K69">
-        <v>0.00421094846601163</v>
+        <v>0.009391435011269721</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N69">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O69">
-        <v>0.3</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4966</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K70">
-        <v>0.004169562195969423</v>
+        <v>0.006019261637239166</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N70">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="O70">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>4299</v>
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K71">
+        <v>0.005852842809364548</v>
+      </c>
+      <c r="L71">
+        <v>14</v>
+      </c>
+      <c r="M71">
+        <v>16</v>
+      </c>
+      <c r="N71">
+        <v>0.88</v>
+      </c>
+      <c r="O71">
+        <v>0.12</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K72">
+        <v>0.005737704918032787</v>
+      </c>
+      <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>19</v>
+      </c>
+      <c r="N72">
+        <v>0.74</v>
+      </c>
+      <c r="O72">
+        <v>0.26</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73">
+        <v>0.005565862708719851</v>
+      </c>
+      <c r="L73">
+        <v>24</v>
+      </c>
+      <c r="M73">
+        <v>40</v>
+      </c>
+      <c r="N73">
+        <v>0.6</v>
+      </c>
+      <c r="O73">
+        <v>0.4</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K74">
+        <v>0.005238649592549476</v>
+      </c>
+      <c r="L74">
+        <v>27</v>
+      </c>
+      <c r="M74">
+        <v>38</v>
+      </c>
+      <c r="N74">
+        <v>0.71</v>
+      </c>
+      <c r="O74">
+        <v>0.29</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>5127</v>
       </c>
     </row>
   </sheetData>
